--- a/artfynd/A 61378-2025 artfynd.xlsx
+++ b/artfynd/A 61378-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130803158</v>
       </c>
       <c r="B2" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>130803162</v>
       </c>
       <c r="B3" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -887,7 +887,7 @@
         <v>130803159</v>
       </c>
       <c r="B4" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -989,7 +989,7 @@
         <v>130803161</v>
       </c>
       <c r="B5" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         <v>130803160</v>
       </c>
       <c r="B6" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
